--- a/MexicanMaturities.xlsx
+++ b/MexicanMaturities.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louccas\Desktop\MIT Semesters\IAP 20-21\15.433\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panqian/mit/15.453 Financial Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F27A16-E7D3-42B9-894E-0E2BC0DC90BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC27E0-7045-1547-9E08-CAB436F728DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query 3_1609976649874" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>MX Banorte 5 3/4% due 31 Yield to Mat Bid</t>
   </si>
@@ -77,9 +88,6 @@
   </si>
   <si>
     <t>MX Televisa 6 5/8% due 40 Yield to Mat Bid</t>
-  </si>
-  <si>
-    <t>MX Televisa 6 5/8% due 01/40 Yield to Mat Bid</t>
   </si>
   <si>
     <t>MX Televisa 5% due 45 Yield to Mat Bid</t>
@@ -101,25 +109,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -127,7 +135,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +143,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,35 +151,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,7 +187,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,14 +195,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -202,14 +210,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +225,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,15 +233,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -582,48 +597,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,26 +916,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -928,7 +943,7 @@
         <v>20311004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -936,7 +951,7 @@
         <v>20250111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -944,7 +959,7 @@
         <v>20260416</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -952,7 +967,7 @@
         <v>20270605</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -960,7 +975,7 @@
         <v>20291119</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -968,7 +983,7 @@
         <v>20300917</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -976,7 +991,7 @@
         <v>20300122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -984,7 +999,7 @@
         <v>20320901</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1007,7 @@
         <v>20431126</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1015,7 @@
         <v>20221108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>20250423</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1031,7 @@
         <v>20350727</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +1039,7 @@
         <v>20400416</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>20421108</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>20450423</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>20250318</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>20260130</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>20320311</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1072,59 +1087,37 @@
         <v>20400115</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20400115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20450513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20450513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20460131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20460131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
         <v>20490524</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100042343C4DBE96F4AA6569BB692C364DF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88923caf6b32bf3eda35389e4b338948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dabe7fbb-202d-4f5f-b842-d2380ba27fd5" xmlns:ns4="a8b85fe8-3dea-468d-a489-413ddfddb008" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16e90585c931da2b92eaca2713092dbe" ns3:_="" ns4:_="">
     <xsd:import namespace="dabe7fbb-202d-4f5f-b842-d2380ba27fd5"/>
@@ -1335,32 +1328,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CD2789-0AF1-44CD-9C45-B9B378BBC2D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a8b85fe8-3dea-468d-a489-413ddfddb008"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dabe7fbb-202d-4f5f-b842-d2380ba27fd5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E18719-EE09-4144-A60A-EE0EB210CCD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C30FE86-90FB-4F83-B7DA-A9DD8FD63084}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1377,4 +1360,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E18719-EE09-4144-A60A-EE0EB210CCD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CD2789-0AF1-44CD-9C45-B9B378BBC2D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a8b85fe8-3dea-468d-a489-413ddfddb008"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dabe7fbb-202d-4f5f-b842-d2380ba27fd5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>